--- a/Desktop/auto/자재업로드.xlsx
+++ b/Desktop/auto/자재업로드.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyCom\Desktop\auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AAA47A-D5E3-4CF0-B267-EC1441DD6F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB688F6B-D0D1-494A-8E59-40D7BC1A09DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30045" yWindow="450" windowWidth="27570" windowHeight="14730" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3702" uniqueCount="1230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3739" uniqueCount="1239">
   <si>
     <t>품목코드</t>
   </si>
@@ -4133,6 +4133,33 @@
   <si>
     <t>NH2 공용</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E311390203</t>
+  </si>
+  <si>
+    <t>E311390303</t>
+  </si>
+  <si>
+    <t>Z151390103</t>
+  </si>
+  <si>
+    <t>Z151350103</t>
+  </si>
+  <si>
+    <t>Z151350203</t>
+  </si>
+  <si>
+    <t>E321290503</t>
+  </si>
+  <si>
+    <t>E321290703</t>
+  </si>
+  <si>
+    <t>Z151280103</t>
+  </si>
+  <si>
+    <t>Z151290203</t>
   </si>
 </sst>
 </file>
@@ -4606,7 +4633,7 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="2" xr:uid="{8D8046CF-F9A2-4150-9607-739A5F503E77}"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="22">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -4632,6 +4659,90 @@
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBFECE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBFECE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBFECE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBFECE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -21203,8 +21314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A703BB7-90FE-4FEB-9274-8B75F608799B}">
   <dimension ref="A1:F421"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J425" sqref="J425"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -21246,7 +21357,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
+      <c r="A4" s="13" t="s">
+        <v>375</v>
+      </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -21254,7 +21367,9 @@
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
+      <c r="A5" s="13" t="s">
+        <v>377</v>
+      </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="15"/>
@@ -21262,7 +21377,9 @@
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
+      <c r="A6" s="13" t="s">
+        <v>384</v>
+      </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -21270,7 +21387,9 @@
       <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
+      <c r="A7" s="13" t="s">
+        <v>65</v>
+      </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="15"/>
@@ -21278,7 +21397,9 @@
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
+      <c r="A8" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -21286,7 +21407,9 @@
       <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
+      <c r="A9" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
@@ -21294,7 +21417,9 @@
       <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
+      <c r="A10" s="13" t="s">
+        <v>450</v>
+      </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -21302,7 +21427,9 @@
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
+      <c r="A11" s="13" t="s">
+        <v>451</v>
+      </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
@@ -21310,7 +21437,9 @@
       <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
+      <c r="A12" s="13" t="s">
+        <v>379</v>
+      </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -21318,7 +21447,9 @@
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
+      <c r="A13" s="13" t="s">
+        <v>1235</v>
+      </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="15"/>
@@ -21326,7 +21457,9 @@
       <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
+      <c r="A14" s="13" t="s">
+        <v>1236</v>
+      </c>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="15"/>
@@ -21334,7 +21467,9 @@
       <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
+      <c r="A15" s="13" t="s">
+        <v>303</v>
+      </c>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="D15" s="15"/>
@@ -21342,7 +21477,9 @@
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
+      <c r="A16" s="13" t="s">
+        <v>257</v>
+      </c>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
@@ -21350,7 +21487,9 @@
       <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
+      <c r="A17" s="13" t="s">
+        <v>271</v>
+      </c>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="15"/>
@@ -21358,7 +21497,9 @@
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
+      <c r="A18" s="13" t="s">
+        <v>1161</v>
+      </c>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="15"/>
@@ -21366,7 +21507,9 @@
       <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
+      <c r="A19" s="13" t="s">
+        <v>1237</v>
+      </c>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="15"/>
@@ -21374,7 +21517,9 @@
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
+      <c r="A20" s="13" t="s">
+        <v>1238</v>
+      </c>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="15"/>
@@ -24596,26 +24741,52 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A4:D137 F4:F167">
-    <cfRule type="expression" dxfId="9" priority="4">
-      <formula>FIND("3층",$F4,1)&gt;=1</formula>
+  <conditionalFormatting sqref="A21:D137 F21:F167">
+    <cfRule type="expression" dxfId="21" priority="10">
+      <formula>FIND("3층",$F21,1)&gt;=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A115:D116 A120:D122 A129:D129 A144:D144 A165:D167 A171:D171 F171 F174:F180 A174:D202">
-    <cfRule type="expression" dxfId="8" priority="15">
+    <cfRule type="expression" dxfId="20" priority="21">
       <formula>FIND("3층",$F115,1)&gt;=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142:D143 A148:D148">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="19" priority="13">
       <formula>FIND("3층",$F142,1)&gt;=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:F421">
-    <cfRule type="expression" dxfId="6" priority="8">
+  <conditionalFormatting sqref="A21:F421">
+    <cfRule type="expression" dxfId="18" priority="14">
+      <formula>FIND("2층",$F21,1)&gt;=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="15">
+      <formula>FIND("3층",$F21,1)&gt;=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:D20 F4:F20">
+    <cfRule type="expression" dxfId="16" priority="4">
+      <formula>FIND("3층",$F4,1)&gt;=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:F20">
+    <cfRule type="expression" dxfId="15" priority="5">
       <formula>FIND("2층",$F4,1)&gt;=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="9">
+    <cfRule type="expression" dxfId="14" priority="6">
+      <formula>FIND("3층",$F4,1)&gt;=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:A20">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>FIND("3층",$F4,1)&gt;=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:A20">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>FIND("2층",$F4,1)&gt;=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>FIND("3층",$F4,1)&gt;=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24628,8 +24799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9CE01E9-F6C4-4CDA-85D4-A16682A8CF07}">
   <dimension ref="A1:F421"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -24671,7 +24842,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
+      <c r="A4" s="13" t="s">
+        <v>279</v>
+      </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -24679,7 +24852,9 @@
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
+      <c r="A5" s="13" t="s">
+        <v>291</v>
+      </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="15"/>
@@ -24687,7 +24862,9 @@
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
+      <c r="A6" s="13" t="s">
+        <v>1128</v>
+      </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
@@ -24695,7 +24872,9 @@
       <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
+      <c r="A7" s="13" t="s">
+        <v>1230</v>
+      </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="15"/>
@@ -24703,7 +24882,9 @@
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
+      <c r="A8" s="13" t="s">
+        <v>1231</v>
+      </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
@@ -24711,7 +24892,9 @@
       <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
+      <c r="A9" s="13" t="s">
+        <v>230</v>
+      </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
@@ -24719,7 +24902,9 @@
       <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
+      <c r="A10" s="13" t="s">
+        <v>232</v>
+      </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -24727,7 +24912,9 @@
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
+      <c r="A11" s="13" t="s">
+        <v>1060</v>
+      </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
@@ -24735,7 +24922,9 @@
       <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
+      <c r="A12" s="13" t="s">
+        <v>1059</v>
+      </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15"/>
@@ -24743,7 +24932,9 @@
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
+      <c r="A13" s="13" t="s">
+        <v>1090</v>
+      </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="15"/>
@@ -24751,7 +24942,9 @@
       <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
+      <c r="A14" s="13" t="s">
+        <v>1232</v>
+      </c>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="15"/>
@@ -24759,7 +24952,9 @@
       <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
+      <c r="A15" s="13" t="s">
+        <v>1233</v>
+      </c>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="D15" s="15"/>
@@ -24767,7 +24962,9 @@
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
+      <c r="A16" s="13" t="s">
+        <v>1234</v>
+      </c>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
@@ -24775,7 +24972,9 @@
       <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
+      <c r="A17" s="13" t="s">
+        <v>555</v>
+      </c>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="15"/>
@@ -24783,7 +24982,9 @@
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
+      <c r="A18" s="13" t="s">
+        <v>557</v>
+      </c>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="15"/>
@@ -24791,7 +24992,9 @@
       <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
+      <c r="A19" s="13" t="s">
+        <v>559</v>
+      </c>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="15"/>
@@ -24799,7 +25002,9 @@
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
+      <c r="A20" s="13" t="s">
+        <v>184</v>
+      </c>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="15"/>
@@ -24807,7 +25012,9 @@
       <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
+      <c r="A21" s="13" t="s">
+        <v>450</v>
+      </c>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="15"/>
@@ -24815,7 +25022,9 @@
       <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
+      <c r="A22" s="13" t="s">
+        <v>451</v>
+      </c>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="15"/>
@@ -24823,7 +25032,9 @@
       <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
+      <c r="A23" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="15"/>
@@ -28021,26 +28232,52 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="F4:F167 A4:D137">
-    <cfRule type="expression" dxfId="4" priority="1">
-      <formula>FIND("3층",$F4,1)&gt;=1</formula>
+  <conditionalFormatting sqref="F17:F167 A24:D137 B17:D23">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>FIND("3층",$F17,1)&gt;=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A115:D116 A120:D122 A129:D129 A144:D144 A165:D167 A171:D171 F171 F174:F180 A174:D202">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="12" priority="17">
       <formula>FIND("3층",$F115,1)&gt;=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142:D143 A148:D148">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="11" priority="14">
       <formula>FIND("3층",$F142,1)&gt;=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:F421">
-    <cfRule type="expression" dxfId="1" priority="3">
+  <conditionalFormatting sqref="A24:F421 B17:F23">
+    <cfRule type="expression" dxfId="10" priority="15">
+      <formula>FIND("2층",$F17,1)&gt;=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="16">
+      <formula>FIND("3층",$F17,1)&gt;=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:D16 F4:F16">
+    <cfRule type="expression" dxfId="8" priority="4">
+      <formula>FIND("3층",$F4,1)&gt;=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:F16">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>FIND("2층",$F4,1)&gt;=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>FIND("3층",$F4,1)&gt;=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:A23">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>FIND("3층",$F4,1)&gt;=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:A23">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>FIND("2층",$F4,1)&gt;=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>FIND("3층",$F4,1)&gt;=1</formula>
     </cfRule>
   </conditionalFormatting>
